--- a/data/BuildingPermit/SanMateoBuildingPermits/SanMateoBuildingPermitsWithValidAndInvalidData.xlsx
+++ b/data/BuildingPermit/SanMateoBuildingPermits/SanMateoBuildingPermitsWithValidAndInvalidData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikjain2\SanMateo\Project\APAS_Automation_NJ\qa_automation\data\BuildingPermit\SanMateoBuildingPermits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BuildingPermit\SanMateoBuildingPermits\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -706,39 +706,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="12.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="13.5703125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="4" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="4"/>
-    <col min="26" max="26" width="19.42578125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="13.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="4"/>
+    <col min="9" max="9" width="12.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="14" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.1796875" style="4"/>
+    <col min="20" max="20" width="13.54296875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1796875" style="4" customWidth="1"/>
+    <col min="23" max="25" width="9.1796875" style="4"/>
+    <col min="26" max="26" width="19.453125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.1796875" style="4" customWidth="1"/>
+    <col min="32" max="32" width="11.26953125" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -910,7 +910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -984,7 +984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
